--- a/Resultats des tests.xlsx
+++ b/Resultats des tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AS non echantillonnée" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
   <si>
     <t>Algorithm</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Kmeans</t>
+  </si>
+  <si>
+    <t>non supervisé</t>
   </si>
 </sst>
 </file>
@@ -444,29 +447,59 @@
   <dxfs count="76">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -547,68 +580,38 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -675,6 +678,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00000%"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -751,47 +795,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000000%"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -936,7 +939,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,11 +1117,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="246217200"/>
-        <c:axId val="246217760"/>
+        <c:axId val="33394496"/>
+        <c:axId val="33395056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246217200"/>
+        <c:axId val="33394496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246217760"/>
+        <c:crossAx val="33395056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246217760"/>
+        <c:axId val="33395056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246217200"/>
+        <c:crossAx val="33394496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1237,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1948,37 +1949,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C12:M19" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C12:M19" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <tableColumns count="11">
-    <tableColumn id="1" name="  " dataDxfId="36"/>
-    <tableColumn id="2" name="P(F)" dataDxfId="35">
+    <tableColumn id="1" name="  " dataDxfId="48"/>
+    <tableColumn id="2" name="P(F)" dataDxfId="47">
       <calculatedColumnFormula>(D3+G3)/(F3+E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="P(~F)" dataDxfId="34">
+    <tableColumn id="3" name="P(~F)" dataDxfId="46">
       <calculatedColumnFormula>1-D13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="P(D|F)" dataDxfId="33">
+    <tableColumn id="4" name="P(D|F)" dataDxfId="45">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="P(D|~F)" dataDxfId="32">
+    <tableColumn id="5" name="P(D|~F)" dataDxfId="44">
       <calculatedColumnFormula>L3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="P(~D|~F)" dataDxfId="31">
+    <tableColumn id="6" name="P(~D|~F)" dataDxfId="43">
       <calculatedColumnFormula>E3/(F3+E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="P(~D|F)" dataDxfId="30">
+    <tableColumn id="7" name="P(~D|F)" dataDxfId="42">
       <calculatedColumnFormula>G3/(G3+D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="P(D)" dataDxfId="29">
+    <tableColumn id="8" name="P(D)" dataDxfId="41">
       <calculatedColumnFormula>F13*D13+E13*G13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="P(~D)" dataDxfId="28">
+    <tableColumn id="9" name="P(~D)" dataDxfId="40">
       <calculatedColumnFormula>D13*I13+E13*H13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="P(F|D)" dataDxfId="27">
+    <tableColumn id="10" name="P(F|D)" dataDxfId="39">
       <calculatedColumnFormula>D13*F13/J13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="P(F|~D)" dataDxfId="26">
+    <tableColumn id="11" name="P(F|~D)" dataDxfId="38">
       <calculatedColumnFormula>D13*H13/K13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1987,26 +1988,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="C2:L9" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="C2:L9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="10">
-    <tableColumn id="1" name="Algorithm" dataDxfId="48"/>
-    <tableColumn id="2" name="TP" dataDxfId="47"/>
-    <tableColumn id="3" name="TN" dataDxfId="46"/>
-    <tableColumn id="4" name="FP" dataDxfId="45"/>
-    <tableColumn id="5" name="FN" dataDxfId="44"/>
-    <tableColumn id="6" name="Recall" dataDxfId="43">
+    <tableColumn id="1" name="Algorithm" dataDxfId="35"/>
+    <tableColumn id="2" name="TP" dataDxfId="34"/>
+    <tableColumn id="3" name="TN" dataDxfId="33"/>
+    <tableColumn id="4" name="FP" dataDxfId="32"/>
+    <tableColumn id="5" name="FN" dataDxfId="31"/>
+    <tableColumn id="6" name="Recall" dataDxfId="30">
       <calculatedColumnFormula>D3/(D3+G3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Precision" dataDxfId="42">
+    <tableColumn id="7" name="Precision" dataDxfId="29">
       <calculatedColumnFormula>Tableau14[[#This Row],[TP]]/(Tableau14[[#This Row],[TP]]+Tableau14[[#This Row],[FP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="F1 score" dataDxfId="41">
+    <tableColumn id="8" name="F1 score" dataDxfId="28">
       <calculatedColumnFormula>2*Tableau14[[#This Row],[Precision]]*Tableau14[[#This Row],[Recall]]/(Tableau14[[#This Row],[Precision]]+Tableau14[[#This Row],[Recall]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="BCR" dataDxfId="40">
+    <tableColumn id="9" name="BCR" dataDxfId="27">
       <calculatedColumnFormula>0.5*(Tableau14[[#This Row],[TP]]/(Tableau14[[#This Row],[TP]]+Tableau14[[#This Row],[FN]]))+0.5*(Tableau14[[#This Row],[TN]]/(Tableau14[[#This Row],[TN]]+Tableau14[[#This Row],[FP]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="False Alarm rate" dataDxfId="39">
+    <tableColumn id="11" name="False Alarm rate" dataDxfId="26">
       <calculatedColumnFormula>Tableau14[[#This Row],[FP]]/(Tableau14[[#This Row],[FP]]+Tableau14[[#This Row],[TN]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2054,26 +2055,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau1411" displayName="Tableau1411" ref="C3:L10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau1411" displayName="Tableau1411" ref="C3:L10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="10">
-    <tableColumn id="1" name="Algorithm" dataDxfId="9"/>
-    <tableColumn id="2" name="TP" dataDxfId="3"/>
-    <tableColumn id="3" name="TN" dataDxfId="2"/>
-    <tableColumn id="4" name="FP" dataDxfId="1"/>
-    <tableColumn id="5" name="FN" dataDxfId="0"/>
-    <tableColumn id="6" name="Recall" dataDxfId="8">
+    <tableColumn id="1" name="Algorithm" dataDxfId="11"/>
+    <tableColumn id="2" name="TP" dataDxfId="10"/>
+    <tableColumn id="3" name="TN" dataDxfId="9"/>
+    <tableColumn id="4" name="FP" dataDxfId="8"/>
+    <tableColumn id="5" name="FN" dataDxfId="7"/>
+    <tableColumn id="6" name="Recall" dataDxfId="6">
       <calculatedColumnFormula>D4/(D4+G4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Precision" dataDxfId="7">
+    <tableColumn id="7" name="Precision" dataDxfId="5">
       <calculatedColumnFormula>Tableau1411[[#This Row],[TP]]/(Tableau1411[[#This Row],[TP]]+Tableau1411[[#This Row],[FP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="F1 score" dataDxfId="6">
+    <tableColumn id="8" name="F1 score" dataDxfId="4">
       <calculatedColumnFormula>2*Tableau1411[[#This Row],[Precision]]*Tableau1411[[#This Row],[Recall]]/(Tableau1411[[#This Row],[Precision]]+Tableau1411[[#This Row],[Recall]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="BCR" dataDxfId="5">
+    <tableColumn id="9" name="BCR" dataDxfId="3">
       <calculatedColumnFormula>0.5*(Tableau1411[[#This Row],[TP]]/(Tableau1411[[#This Row],[TP]]+Tableau1411[[#This Row],[FN]]))+0.5*(Tableau1411[[#This Row],[TN]]/(Tableau1411[[#This Row],[TN]]+Tableau1411[[#This Row],[FP]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="False Alarm rate" dataDxfId="4">
+    <tableColumn id="11" name="False Alarm rate" dataDxfId="2">
       <calculatedColumnFormula>Tableau1411[[#This Row],[FP]]/(Tableau1411[[#This Row],[FP]]+Tableau1411[[#This Row],[TN]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2085,8 +2086,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="C2:F9" totalsRowShown="0">
   <autoFilter ref="C2:F9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Algorithm" dataDxfId="13"/>
-    <tableColumn id="2" name="Unsampled" dataDxfId="12"/>
+    <tableColumn id="1" name="Algorithm" dataDxfId="1"/>
+    <tableColumn id="2" name="Unsampled" dataDxfId="0"/>
     <tableColumn id="3" name="UnderSampled"/>
     <tableColumn id="4" name="OVERSAMPLED"/>
   </tableColumns>
@@ -3143,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:L9"/>
     </sheetView>
   </sheetViews>
@@ -3868,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M20"/>
+  <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,10 +3882,20 @@
     <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -4594,14 +4605,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M14"/>
+  <dimension ref="C2:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="26" t="s">
         <v>0</v>
@@ -4651,24 +4670,19 @@
         <v>5</v>
       </c>
       <c r="H4" s="29">
-        <f>D4/(D4+G4)</f>
         <v>0.94623655913978499</v>
       </c>
       <c r="I4" s="29">
-        <f>Tableau1411[[#This Row],[TP]]/(Tableau1411[[#This Row],[TP]]+Tableau1411[[#This Row],[FP]])</f>
-        <v>0.71551724137931039</v>
+        <v>3.3371255214258627E-2</v>
       </c>
       <c r="J4" s="29">
-        <f>2*Tableau1411[[#This Row],[Precision]]*Tableau1411[[#This Row],[Recall]]/(Tableau1411[[#This Row],[Precision]]+Tableau1411[[#This Row],[Recall]])</f>
-        <v>0.78301886792452835</v>
+        <v>6.4468864468864476E-2</v>
       </c>
       <c r="K4" s="29">
-        <f>0.5*(Tableau1411[[#This Row],[TP]]/(Tableau1411[[#This Row],[TP]]+Tableau1411[[#This Row],[FN]]))+0.5*(Tableau1411[[#This Row],[TN]]/(Tableau1411[[#This Row],[TN]]+Tableau1411[[#This Row],[FP]]))</f>
-        <v>0.93200151086179206</v>
+        <v>0.95070673001654082</v>
       </c>
       <c r="L4" s="30">
-        <f>Tableau1411[[#This Row],[FP]]/(Tableau1411[[#This Row],[FP]]+Tableau1411[[#This Row],[TN]])</f>
-        <v>5.8031160974923507E-4</v>
+        <v>4.4823099106703242E-2</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4718,43 +4732,33 @@
         <v>35</v>
       </c>
       <c r="D14" s="35">
-        <f>(D4+G4)/(F4+E4)</f>
         <v>1.6353661109938806E-3</v>
       </c>
       <c r="E14" s="35">
-        <f>1-D14</f>
         <v>0.99836463388900609</v>
       </c>
       <c r="F14" s="35">
-        <f t="shared" ref="F14" si="0">H4</f>
         <v>0.94623655913978499</v>
       </c>
       <c r="G14" s="35">
-        <f t="shared" ref="G14" si="1">L4</f>
-        <v>5.8031160974923507E-4</v>
+        <v>4.4823099106703242E-2</v>
       </c>
       <c r="H14" s="35">
-        <f>E4/(F4+E4)</f>
         <v>0.95517690089329677</v>
       </c>
       <c r="I14" s="35">
-        <f>G4/(G4+D4)</f>
         <v>5.3763440860215055E-2</v>
       </c>
       <c r="J14" s="35">
-        <f>F14*D14+E14*G14</f>
-        <v>2.1268057896094961E-3</v>
+        <v>4.6297240131235082E-2</v>
       </c>
       <c r="K14" s="35">
-        <f>D14*I14+E14*H14</f>
         <v>0.95370275986876496</v>
       </c>
       <c r="L14" s="35">
-        <f>D14*F14/J14</f>
-        <v>0.72759027145811384</v>
+        <v>3.3424091747461575E-2</v>
       </c>
       <c r="M14" s="36">
-        <f t="shared" ref="M14" si="2">D14*H14/K14</f>
         <v>1.6378939009676424E-3</v>
       </c>
     </row>
